--- a/data/trans_camb/P16A17-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16A17-Clase-trans_camb.xlsx
@@ -700,32 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 1,7</t>
+          <t>-3,09; 1,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 0,51</t>
+          <t>-3,7; 0,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,39; -0,43</t>
+          <t>-4,27; -0,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 1,7</t>
+          <t>-3,09; 1,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 0,51</t>
+          <t>-3,7; 0,47</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,39; -0,43</t>
+          <t>-4,27; -0,23</t>
         </is>
       </c>
     </row>
@@ -806,32 +806,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-88,13; 167,26</t>
+          <t>-88,24; 156,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 92,21</t>
+          <t>-100,0; 117,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-95,06; 3,27</t>
+          <t>-95,15; 16,92</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-88,13; 167,26</t>
+          <t>-88,24; 156,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 92,21</t>
+          <t>-100,0; 117,81</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-95,06; 3,27</t>
+          <t>-95,15; 16,92</t>
         </is>
       </c>
     </row>
@@ -921,12 +921,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,74</t>
+          <t>0,0; 2,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,34; 2,05</t>
+          <t>0,31; 1,93</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,74</t>
+          <t>0,0; 2,23</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,34; 2,05</t>
+          <t>0,31; 1,93</t>
         </is>
       </c>
     </row>
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,57</t>
+          <t>0,0; 2,31</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,57</t>
+          <t>0,0; 2,31</t>
         </is>
       </c>
     </row>
@@ -1348,32 +1348,32 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 0,66</t>
+          <t>-1,22; 0,61</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 0,21</t>
+          <t>-1,39; 0,19</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,78; -0,16</t>
+          <t>-1,86; -0,18</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 0,66</t>
+          <t>-1,22; 0,61</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 0,21</t>
+          <t>-1,39; 0,19</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,78; -0,16</t>
+          <t>-1,86; -0,18</t>
         </is>
       </c>
     </row>
@@ -1454,32 +1454,32 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-82,81; 235,8</t>
+          <t>-82,07; 215,91</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 192,35</t>
+          <t>-100,0; 59,73</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-97,66; -18,91</t>
+          <t>-97,78; -1,33</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-82,81; 235,8</t>
+          <t>-82,07; 215,91</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 192,35</t>
+          <t>-100,0; 59,73</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-97,66; -18,91</t>
+          <t>-97,78; -1,33</t>
         </is>
       </c>
     </row>
@@ -1564,32 +1564,32 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 1,01</t>
+          <t>-0,79; 1,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 0,64</t>
+          <t>-0,97; 0,68</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 0,61</t>
+          <t>-1,1; 0,62</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 1,01</t>
+          <t>-0,79; 1,0</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 0,64</t>
+          <t>-0,97; 0,68</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 0,61</t>
+          <t>-1,1; 0,62</t>
         </is>
       </c>
     </row>
@@ -1670,32 +1670,32 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,85; 542,85</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-88,19; 460,95</t>
+          <t>-100,0; 571,16</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-73,0; 327,72</t>
+          <t>-81,05; 336,62</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,85; 542,85</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-88,19; 460,95</t>
+          <t>-100,0; 571,16</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-73,0; 327,72</t>
+          <t>-81,05; 336,62</t>
         </is>
       </c>
     </row>
@@ -1780,32 +1780,32 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 0,58</t>
+          <t>-0,65; 0,5</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 0,71</t>
+          <t>-0,58; 0,69</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 0,1</t>
+          <t>-0,8; 0,13</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 0,58</t>
+          <t>-0,65; 0,5</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 0,71</t>
+          <t>-0,58; 0,69</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 0,1</t>
+          <t>-0,8; 0,13</t>
         </is>
       </c>
     </row>
@@ -1886,32 +1886,32 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 308,66</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-74,54; 373,63</t>
+          <t>-79,35; 289,09</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 141,27</t>
+          <t>-100,0; 136,31</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 308,66</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-74,54; 373,63</t>
+          <t>-79,35; 289,09</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 141,27</t>
+          <t>-100,0; 136,31</t>
         </is>
       </c>
     </row>
@@ -1996,32 +1996,32 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 0,27</t>
+          <t>-0,51; 0,29</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 0,14</t>
+          <t>-0,59; 0,17</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 0,03</t>
+          <t>-0,63; 0,04</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 0,27</t>
+          <t>-0,51; 0,29</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 0,14</t>
+          <t>-0,59; 0,17</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 0,03</t>
+          <t>-0,63; 0,04</t>
         </is>
       </c>
     </row>
@@ -2102,32 +2102,32 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-57,36; 52,83</t>
+          <t>-54,13; 59,45</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-61,91; 35,07</t>
+          <t>-60,85; 39,14</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-66,45; 9,12</t>
+          <t>-64,68; 10,05</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-57,36; 52,83</t>
+          <t>-54,13; 59,45</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-61,91; 35,07</t>
+          <t>-60,85; 39,14</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-66,45; 9,12</t>
+          <t>-64,68; 10,05</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A17-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16A17-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
